--- a/대구가스공사_미니프로젝트/Data/Config.xlsx
+++ b/대구가스공사_미니프로젝트/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1020a\OneDrive\문서\UiPath\대구가스공사_미니프로젝트\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6AD46A-48E8-4575-8D1D-825401DF67FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DA6D0E-E976-48A1-A6A9-B5C56E434DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1671,7 +1671,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>25</v>

--- a/대구가스공사_미니프로젝트/Data/Config.xlsx
+++ b/대구가스공사_미니프로젝트/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1020a\OneDrive\문서\UiPath\대구가스공사_미니프로젝트\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1020a\OneDrive\문서\TIL2022\대구가스공사_미니프로젝트\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DA6D0E-E976-48A1-A6A9-B5C56E434DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175EE938-570D-47D7-87B7-D53DC07F0CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -160,13 +160,169 @@
   </si>
   <si>
     <t>ProcessABCQueue</t>
+  </si>
+  <si>
+    <t>https://www.theice.com/products/219/Brent-Crude-Futures/data?marketId=5166944</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HH_URL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.cmegroup.com/markets/energy/natural-gas/natural-gas.settlements.html</t>
+  </si>
+  <si>
+    <t>NBP_URL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.theice.com/products/910/UK-Natural-Gas-Futures/data?marketId=5253319</t>
+  </si>
+  <si>
+    <t>GBP_URL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.bankofengland.co.uk/boeapps/database/Rates.asp?Travel=NIxIRx&amp;into=GBP</t>
+  </si>
+  <si>
+    <t>TTF_URL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.theice.com/products/27996665/Dutch-TTF-Gas-Futures/data?marketId=5372695</t>
+  </si>
+  <si>
+    <t>USD_URL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.ecb.europa.eu/stats/policy_and_exchange_rates/euro_reference_exchange_rates/html/eurofxref-graph-usd.en.html</t>
+  </si>
+  <si>
+    <t>KPER_URL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.petronet.co.kr/v3/index.jsp</t>
+  </si>
+  <si>
+    <t>TMP_ROOT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Data\Temp\LNG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환율조사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TMP location</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">input_location </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Date\Input\</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>output_loacation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Date\Output\</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>input location</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>output location</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>BRENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_URL</t>
+    </r>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -191,6 +347,26 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -209,10 +385,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -222,9 +399,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -538,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -618,31 +798,110 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1611,8 +1870,11 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{B50F2DEC-FD8D-4964-B622-C4FB36B376BA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1620,7 +1882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
